--- a/biology/Médecine/Il_était_une_fois…_la_Vie/Il_était_une_fois…_la_Vie.xlsx
+++ b/biology/Médecine/Il_était_une_fois…_la_Vie/Il_était_une_fois…_la_Vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+          <t>Il_était_une_fois…_la_Vie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était une fois... la Vie est une série télévisée d'animation française en 26 épisodes de 25 minutes, créée, écrite et réalisée par  Albert Barillé  en 1986. Elle a pour sous-titre La fabuleuse histoire du corps humain. En France, elle est diffusée à partir du 10 décembre 1986 sur Canal+ dans l'émission Cabou Cadin puis à partir du 13 septembre 1987 sur FR3 d'abord sans émission jeunesse, puis dans Samdynamite. Elle est rediffusée dans les années 90 sur Canal J puis sur France 3 dans Les Minikeums puis sur Télétoon en 2001-2002, vers 2004-2005 sur Ma Planète et puis aussi Gulli à partir du 6 février 2006. La version restaurée et en HD de 2016 est diffusée depuis le 4 mars 2017 sur France 4.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+          <t>Il_était_une_fois…_la_Vie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série est destinée aux enfants et aux adultes curieux du fonctionnement du corps humain.
 Elle raconte de façon ludique l'architecture et la composition des différents types cellulaires, des tissus biologiques et des organes ainsi que leurs fonctions respectives. De plus, ces descriptions microscopiques des composants du corps s'intègrent dans des scénarios pédagogiques traitant plus globalement du développement du corps humain, de ses fonctions physiologiques principales, du cycle de la vie et de l'éducation à la santé.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+          <t>Il_était_une_fois…_la_Vie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,25 +559,179 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Comme dans chacun des dessins animés de la série Il était une fois..., les personnages se composent essentiellement de Maestro, Pierre/Pierrot, Psi, Petit Gros, Maman/Petite Pierrette, le Teigneux, le Nabot, etc., mais qui, ici, personnifient également les éléments ou les parasites du corps humain. D'autres personnages spécifiques au corps humain se rajoutent pour cette série.
-Personnages humains à part entière et dans le corps humain
-Maestro
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme dans chacun des dessins animés de la série Il était une fois..., les personnages se composent essentiellement de Maestro, Pierre/Pierrot, Psi, Petit Gros, Maman/Petite Pierrette, le Teigneux, le Nabot, etc., mais qui, ici, personnifient également les éléments ou les parasites du corps humain. D'autres personnages spécifiques au corps humain se rajoutent pour cette série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Personnages humains à part entière et dans le corps humain</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maestro
 Pierre/Pierrot
 Psi
 le Gros/Petit Gros
 Le Nabot
-Le Teigneux
-Personnages n'évoluant que dans le corps humain
-Maître Globus (qui reprend les traits de Maestro)
+Le Teigneux</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Personnages n'évoluant que dans le corps humain</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maître Globus (qui reprend les traits de Maestro)
 Hémo (qui reprend les traits du Gros)
 Globine (qui reprend les traits de petite Pierrette)
-Métro (personnage issu d'Il était une fois l'Espace)
-Personnage humains à part entière uniquement
-(Maman) Pierrette
-(Petite) Pierrette
-Description et fonctions des personnages
-On retrouve, déclinés sous plusieurs formes, à chaque épisode ou presque :
+Métro (personnage issu d'Il était une fois l'Espace)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Personnage humains à part entière uniquement</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Maman) Pierrette
+(Petite) Pierrette</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Description et fonctions des personnages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On retrouve, déclinés sous plusieurs formes, à chaque épisode ou presque :
 Le chef de cellule (quelle qu'elle soit) : et savant Maestro, le petit personnage barbu et enrobé, portant la même combinaison que dans Il était une fois... l'Espace. Il est souvent assoupi dans son fauteuil et est entouré en général de deux assistants qui hésitent à le réveiller quand il y a un problème. Il est aussi le bon médecin qui prodigue conseils et soins aux jeunes (souvent imprudents). Le chef de certaines cellules est parfois représenté par un autre personnage, barbu également, mais plus grand et svelte.
 Les gènes sont jaunes et ont sur la poitrine la lettre A, C, T ou G.
 Les enzymes, ouvriers du corps humain, représentés en petits personnages humanoïdes tous identiques (ou presque), habillés d'une salopette et une casquette bleue.
@@ -594,77 +762,149 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Déroulement de l'histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se passe généralement dans le corps de Pierrot (corps «normal» et généralement sain), dans 2 épisodes dans celui de Psi, parfois celui de Petit-Gros (corps un peu enrobé, et parfois non vacciné), et dans 2 épisodes celui de Petite-Pierrette, et en contre-exemple celui du Teigneux ou du Nabot (fumeur, qui boit de l'alcool et mange trop gras) puis dans le dernier épisode on découvre le corps d'un homme âgé (corps affaibli par le temps). Enfin, Maestro est présenté en tant que médecin, docteur, dentiste, etc. pour finir scientifique dans le dernier épisode.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titre : Il était une fois... la Vie
-Sous-titre : La fabuleuse histoire du corps humain
-Voix françaises
-Roger Carel : le narrateur, Maestro, Métro, Maître Globus, colonel Pierre, le Nabot
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Titre : Il était une fois... la Vie
+Sous-titre : La fabuleuse histoire du corps humain</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Roger Carel : le narrateur, Maestro, Métro, Maître Globus, colonel Pierre, le Nabot
 Gilles Laurent : Capitaine Pierrot (le globule blanc)
 Gilles Tamiz : Petit Pierrot (l'humain), Petit Gros
 Marie-Laure Beneston (voix principale) et Béatrice Bruno (voix de remplacement) : Pierrette, le lieutenant Psi, Globine, Petite Pierrette
 Alain Dorval : Hémo, le Gros, le Teigneux (voix principale)
-Sady Rebbot, Henry Djanik, Serge Sauvion et Pascal Renwick : voix de remplacement[2]
+Sady Rebbot, Henry Djanik, Serge Sauvion et Pascal Renwick : voix de remplacement
 Patrick Préjean : le Nabot (voix de remplacement)
 Vincent Ropion : Capitaine Pierrot (voix de remplacement)
-Thierry Ragueneau : Petit Pierrot (voix de remplacement)
-Participations
-Bien que la société de production Procidis soit française, de nombreux pays ont participé à la réalisation de cette série. Dans l'ordre des crédits (dans le générique) :
+Thierry Ragueneau : Petit Pierrot (voix de remplacement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la société de production Procidis soit française, de nombreux pays ont participé à la réalisation de cette série. Dans l'ordre des crédits (dans le générique) :
 FR3  France
 Canal+  France
 Société Radio-Canada (SRC)  Canada
@@ -676,40 +916,112 @@
 Belgische radio en televisie (BRT)  Belgique
 Eiken Co.Ltd (EK)  Japon
 Avec la participation du Ministère de la Culture et le Ministère des PTT (France).
-Musique
-La musique de la  bande-son et du générique Hymne à la vie a  été composée par Michel Legrand et orchestrée par Armand Migiani. La chanson du générique est interprétée par Sandra Kim sur des paroles d'Albert Barillé pour la version française. Elle est produite par Procidis et publiée aux Éditions Carrère. La bande originale du dessin animé est sortie en 2002 en CD.
-Design
-Comme dans les opus précédents, Il était une fois... l'Homme et Il était une fois... l'Espace, le graphisme et les recherches plastiques sont réalisés par Jean Barbaud. On remarque au-delà de la similitude des personnages principaux des ressemblances avec la série précédente Il était une fois... l'Espace (Confédération de l'Oméga/lymphocytes...), l'aspect futuriste des vaisseaux et bâtiments symbolisant certains éléments du corps humain, ainsi que certains thèmes musicaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique de la  bande-son et du générique Hymne à la vie a  été composée par Michel Legrand et orchestrée par Armand Migiani. La chanson du générique est interprétée par Sandra Kim sur des paroles d'Albert Barillé pour la version française. Elle est produite par Procidis et publiée aux Éditions Carrère. La bande originale du dessin animé est sortie en 2002 en CD.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme dans les opus précédents, Il était une fois... l'Homme et Il était une fois... l'Espace, le graphisme et les recherches plastiques sont réalisés par Jean Barbaud. On remarque au-delà de la similitude des personnages principaux des ressemblances avec la série précédente Il était une fois... l'Espace (Confédération de l'Oméga/lymphocytes...), l'aspect futuriste des vaisseaux et bâtiments symbolisant certains éléments du corps humain, ainsi que certains thèmes musicaux.
 Les décors sont de Claude Lambert.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>La Planète cellule
 La Naissance
@@ -740,146 +1052,264 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Version restaurée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Procédé
-À l'initiative d'Hélène Barillé, l'épouse du créateur et producteur Albert Barillé, la série est restaurée en 2016. Cette version en haute définition et en 16:9, inscrite dans la collection « Hello Maestro ! », a nécessité un travail de plusieurs mois qui a été effectué par le laboratoire Mikros Image près de Paris. L'image a été améliorée notamment par le graphiste Aurélien Grand : correction de petites erreurs d'animation et « nettoyage » de l'image, la mise en couleurs est effectuée par Afroula Hadjiyanakis. Le son est de meilleure qualité, et la musique a été redéfinie avec une table de mixage et remasterisée. Le générique du début (la chanson interprétée par Sandra Kim en 1986) est écourté par rapport à la diffusion originale, tandis que celui de fin est de la même durée que dans la première version.
-Diffusion et commercialisation
-Des épisodes de cette nouvelle version sont disponibles dès le 4 février 2017 sur la plateforme de l'émission de France 4 ludo.fr. La chaîne France 4 diffuse les épisodes de cette version restaurée, depuis le 4 mars 2017, dans l'émission  Ludo, tous les soirs à 19 h 30 et le week-end à 11 h 40. Les épisodes restaurés sont regardés en moyenne par 388 000 téléspectateurs, dont un a rassemblé 510 000 personnes[3].La série Il était une fois... la Vie est disponible aussi sur Okoo, une marque pour la jeunesse de France Télévisions.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Procédé</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'initiative d'Hélène Barillé, l'épouse du créateur et producteur Albert Barillé, la série est restaurée en 2016. Cette version en haute définition et en 16:9, inscrite dans la collection « Hello Maestro ! », a nécessité un travail de plusieurs mois qui a été effectué par le laboratoire Mikros Image près de Paris. L'image a été améliorée notamment par le graphiste Aurélien Grand : correction de petites erreurs d'animation et « nettoyage » de l'image, la mise en couleurs est effectuée par Afroula Hadjiyanakis. Le son est de meilleure qualité, et la musique a été redéfinie avec une table de mixage et remasterisée. Le générique du début (la chanson interprétée par Sandra Kim en 1986) est écourté par rapport à la diffusion originale, tandis que celui de fin est de la même durée que dans la première version.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Version restaurée</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Diffusion et commercialisation</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des épisodes de cette nouvelle version sont disponibles dès le 4 février 2017 sur la plateforme de l'émission de France 4 ludo.fr. La chaîne France 4 diffuse les épisodes de cette version restaurée, depuis le 4 mars 2017, dans l'émission  Ludo, tous les soirs à 19 h 30 et le week-end à 11 h 40. Les épisodes restaurés sont regardés en moyenne par 388 000 téléspectateurs, dont un a rassemblé 510 000 personnes.La série Il était une fois... la Vie est disponible aussi sur Okoo, une marque pour la jeunesse de France Télévisions.
 Depuis le 18 août 2017, la série est disponible en DVD et Blu-Ray.[réf. souhaitée]
-Netflix annonce sur son compte Twitter le 18 octobre 2019[4] que la série est désormais disponible sur sa plateforme.
+Netflix annonce sur son compte Twitter le 18 octobre 2019 que la série est désormais disponible sur sa plateforme.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>1988 : 7 d'or de la meilleure émission pour la jeunesse (France)
 Pater, meilleure émission pour la jeunesse (Australie)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Livres
-Durant le premier trimestre de 1990 sort la collection Il était une fois la vie (Le corps humain) composée de soixante-cinq albums. Elle est conçue par Albert Barillé, produite par Procidis (Sogemo pour l'adaptation et la réalisation en langue française) et publiée aux éditions Hachette-Fabbri[réf. nécessaire]. L'auteur est l'Équipe Multilibro SA qui en est aussi la réalisatrice et la coordinatrice technique. Le graphisme et les décors sont réalisés par la même équipe que pour la série télévisée. Les trente premiers volumes ont été conçus par des spécialistes de l'anatomie (médecins, professeurs) et les vingt derniers par des professionnels du secourisme et de la prévention. Cette collection traite et développe les mêmes thèmes que ceux étudiés à l'école.
-Jeu de société
-Jeux vidéos
-En l’an 2000, une série de jeux vidéos d’Il était une fois la vie a été produite, aussi nombreux que les épisodes de la série : 26 CD-ROM. Ils sont téléchargeables gratuitement en tant qu’abandogiciels[5]. Ces jeux proposent, pour chaque organe ou fonctionnement du corps :
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant le premier trimestre de 1990 sort la collection Il était une fois la vie (Le corps humain) composée de soixante-cinq albums. Elle est conçue par Albert Barillé, produite par Procidis (Sogemo pour l'adaptation et la réalisation en langue française) et publiée aux éditions Hachette-Fabbri[réf. nécessaire]. L'auteur est l'Équipe Multilibro SA qui en est aussi la réalisatrice et la coordinatrice technique. Le graphisme et les décors sont réalisés par la même équipe que pour la série télévisée. Les trente premiers volumes ont été conçus par des spécialistes de l'anatomie (médecins, professeurs) et les vingt derniers par des professionnels du secourisme et de la prévention. Cette collection traite et développe les mêmes thèmes que ceux étudiés à l'école.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Jeux vidéos</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En l’an 2000, une série de jeux vidéos d’Il était une fois la vie a été produite, aussi nombreux que les épisodes de la série : 26 CD-ROM. Ils sont téléchargeables gratuitement en tant qu’abandogiciels. Ces jeux proposent, pour chaque organe ou fonctionnement du corps :
 une encyclopédie animée et interactive ;
 le dessin animé correspondant ;
 un quiz ;
 une « mission santé » dans laquelle Pierrot dans son vaisseau doit réparer un organe très mal en point ;
 une exploration en 3D de l’organe avec des commentaires audio.
 Ces CD proposent aussi un atlas consistant à placer une trentaine d’organes au bon endroit sur un mannequin.
-Il existe également une version synthétique en deux CD, parue en 2002, et encore disponible à la vente[6],[7].
-Bande dessinée
-Des bandes dessinées Il était une fois la vie produites par Soleil Productions paraissent depuis mars 2017. Elles sont scénarisées par Jean-Charles Gaudin et illustrées par Minte. Cette série reprend les personnages de la série d'animation mais donne plus d'importance aux personnages humains. Ces bandes dessinées combinent des histoires inédites et modernisées avec des scènes identiques à celles du dessin animé.
+Il existe également une version synthétique en deux CD, parue en 2002, et encore disponible à la vente,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Des bandes dessinées Il était une fois la vie produites par Soleil Productions paraissent depuis mars 2017. Elles sont scénarisées par Jean-Charles Gaudin et illustrées par Minte. Cette série reprend les personnages de la série d'animation mais donne plus d'importance aux personnages humains. Ces bandes dessinées combinent des histoires inédites et modernisées avec des scènes identiques à celles du dessin animé.
 À ce jour la série compte :
-Il était une fois la vie 01 – Le Cœur[8]
+Il était une fois la vie 01 – Le Cœur
 Il était une fois la vie 02 – Le Cerveau
 Il était une fois la vie 03 – Les Os et le Squelette
 Il était une fois la vie 04 – Les Muscles et la Graisse</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois…_la_Vie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois%E2%80%A6_la_Vie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le film Titane (2021) de Julia Ducournau, on peut brièvement voir des images et entendre la chanson du générique lorsqu'un des personnages du film regarde la télé.
 Un autre clip de la série apparaît dans le film Mascarade (2022) quand est regardé cette fois par le caractère de Ava.
